--- a/Data/result/Invoice_20.06.11_이석원.xlsx
+++ b/Data/result/Invoice_20.06.11_이석원.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA20B6F-88CB-422D-8188-93DCFDE3FE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194103DB-3CD7-43AF-9DF5-1C76EC556A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="22332" windowHeight="11616" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="744" windowWidth="22332" windowHeight="11616" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice-Number" sheetId="3" r:id="rId1"/>
-    <sheet name="712160" sheetId="4" r:id="rId2"/>
-    <sheet name="235581" sheetId="5" r:id="rId3"/>
-    <sheet name="686985" sheetId="6" r:id="rId4"/>
-    <sheet name="913629" sheetId="7" r:id="rId5"/>
-    <sheet name="753038" sheetId="8" r:id="rId6"/>
-    <sheet name="407357" sheetId="9" r:id="rId7"/>
-    <sheet name="781817" sheetId="10" r:id="rId8"/>
-    <sheet name="409095" sheetId="11" r:id="rId9"/>
-    <sheet name="193194" sheetId="12" r:id="rId10"/>
+    <sheet name="761105" sheetId="4" r:id="rId2"/>
+    <sheet name="276412" sheetId="5" r:id="rId3"/>
+    <sheet name="946242" sheetId="6" r:id="rId4"/>
+    <sheet name="151985" sheetId="7" r:id="rId5"/>
+    <sheet name="266473" sheetId="8" r:id="rId6"/>
+    <sheet name="570388" sheetId="9" r:id="rId7"/>
+    <sheet name="299832" sheetId="10" r:id="rId8"/>
+    <sheet name="207766" sheetId="11" r:id="rId9"/>
+    <sheet name="866952" sheetId="12" r:id="rId10"/>
+    <sheet name="720095" sheetId="13" r:id="rId11"/>
+    <sheet name="382824" sheetId="14" r:id="rId12"/>
+    <sheet name="200914" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="103">
   <si>
     <t>DATE</t>
   </si>
@@ -146,79 +149,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IT Works</t>
+    <t>Clipboard Papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Via Prossima 12</t>
+    <t xml:space="preserve"> Strada Agrafei 67 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Torino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste management services </t>
-  </si>
-  <si>
-    <t>79497.6 EUR</t>
-  </si>
-  <si>
-    <t>66248 EUR</t>
-  </si>
-  <si>
-    <t>13249.6 EUR</t>
-  </si>
-  <si>
-    <t>Moretronic Intelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bauhaus Strasse 21 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Munchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Services </t>
-  </si>
-  <si>
-    <t>287080 EUR</t>
-  </si>
-  <si>
-    <t>57416 EUR</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bulevardul Papetariei 57 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bucuresti</t>
+    <t>Brasov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,92 +169,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Concierge Services </t>
+    <t xml:space="preserve">Waste management services </t>
   </si>
   <si>
-    <t>201421 RON</t>
+    <t>154294 USD</t>
   </si>
   <si>
-    <t>40284.2 RON</t>
+    <t>30858.8 USD</t>
   </si>
   <si>
-    <t>Star Software</t>
+    <t>Megatronic Incorporated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Aleea Rozelor 84 </t>
+    <t>Strada Sperantei la</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iasi</t>
+    <t>Bucuresti</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>152039 EUR</t>
+    <t xml:space="preserve">Various paper supplies </t>
   </si>
   <si>
-    <t>30407.8 EUR</t>
+    <t>304601 RON</t>
   </si>
   <si>
-    <t>Bauhaus Strasse 21</t>
+    <t>253834 RON</t>
+  </si>
+  <si>
+    <t>50766.8 RON</t>
+  </si>
+  <si>
+    <t>Minitronic Systems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>163633 EUR</t>
-  </si>
-  <si>
-    <t>136361 EUR</t>
-  </si>
-  <si>
-    <t>27272.2 EUR</t>
-  </si>
-  <si>
-    <t>Maxitronic Limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bingauer Strasse 45 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44097 RON</t>
-  </si>
-  <si>
-    <t>8819.4 RON</t>
-  </si>
-  <si>
-    <t>Telephone Systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intrarea Telefoanelor 112 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Support </t>
-  </si>
-  <si>
-    <t>244947 CAD</t>
-  </si>
-  <si>
-    <t>48989.4 CAD</t>
-  </si>
-  <si>
-    <t>180646 EUR</t>
-  </si>
-  <si>
-    <t>36129.2 EUR</t>
-  </si>
-  <si>
-    <t>Limited Adventure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avenue Marcheariere 18</t>
+    <t>Rue Saint Denis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,16 +222,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>305106 RON</t>
+  </si>
+  <si>
+    <t>254255 RON</t>
+  </si>
+  <si>
+    <t>50851 RON</t>
+  </si>
+  <si>
+    <t>Technology Lake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hauptbahnhoff Strasse 21 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Concierge Services </t>
+  </si>
+  <si>
+    <t>110079 CAD</t>
+  </si>
+  <si>
+    <t>22015.8 CAD</t>
+  </si>
+  <si>
+    <t>Volga Rivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoch Strasse 12 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Support </t>
+  </si>
+  <si>
+    <t>205512 USD</t>
+  </si>
+  <si>
+    <t>41102.4 USD</t>
+  </si>
+  <si>
+    <t>Purple Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moven Strasse 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Services </t>
+  </si>
+  <si>
+    <t>107063 EUR</t>
+  </si>
+  <si>
+    <t>89219 EUR</t>
+  </si>
+  <si>
+    <t>17843.8 EUR</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Mecatronic Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulevardul Unirii 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137111 CAD</t>
+  </si>
+  <si>
+    <t>114259 CAD</t>
+  </si>
+  <si>
+    <t>22851.8 CAD</t>
+  </si>
+  <si>
+    <t>Hauptbahnhoff Strasse 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52976.4 CAD</t>
+  </si>
+  <si>
+    <t>44147 CAD</t>
+  </si>
+  <si>
+    <t>8829.4 CAD</t>
+  </si>
+  <si>
+    <t>Hoch Strasse 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199759 EUR</t>
+  </si>
+  <si>
+    <t>166466 EUR</t>
+  </si>
+  <si>
+    <t>33293.2 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rue Saint Denis 68 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>286635 RON</t>
+  </si>
+  <si>
+    <t>57327 RON</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beverages and Catering </t>
   </si>
   <si>
-    <t>74673.6 CAD</t>
+    <t>252404 CAD</t>
   </si>
   <si>
-    <t>62228 CAD</t>
+    <t>210337 CAD</t>
   </si>
   <si>
-    <t>12445.6 CAD</t>
+    <t>42067.4 CAD</t>
+  </si>
+  <si>
+    <t>Godmother Catering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strada Flamanda 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175848 USD</t>
+  </si>
+  <si>
+    <t>146540 USD</t>
+  </si>
+  <si>
+    <t>29308 USD</t>
   </si>
 </sst>
 </file>
@@ -595,7 +646,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,8 +829,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -798,13 +867,499 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="91">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2756,7 +3311,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC0FFED-4A54-44C7-9F9D-A9352E245E9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD26AD52-45D5-495E-8337-71629DE4786D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +3330,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F45FC00-2C80-4981-B6BD-4946F79F2161}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B766B77-8C63-4F2B-B5F5-362E1E34A2D7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2804,7 +3359,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820112B7-7AC5-402B-AD7F-BFFF463A7EB2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC256275-6DE2-4ED9-A1D9-3C529B7B4F73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2833,7 +3388,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1A22D7-0B7F-41C3-936D-E819C54421D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36036F5B-DB8E-47C4-8704-AD201B8E2B9B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2878,7 +3433,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0774E45-08BD-4745-B410-DCE312FEBCE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCCFC2F-68A6-4902-A468-3145BFA35099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +3477,787 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0BDD15-9E26-4A65-BC48-AF057F0EF54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DF64C8-B82E-4044-A0C8-1110678F929A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5760720" y="74295"/>
+          <a:ext cx="2314575" cy="1139190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:fld id="{68DC6BBE-3579-47C3-AF84-66E0C45E4378}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:t>INVOICE</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1080135</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E13992-07F0-4168-90A5-A13652AAA290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="720089" y="746761"/>
+          <a:ext cx="6600826" cy="220980"/>
+          <a:chOff x="628650" y="457200"/>
+          <a:chExt cx="4619625" cy="114301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EDDB77-C9B9-469D-A755-A9BD0DA2BA86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628650" y="466725"/>
+            <a:ext cx="1724025" cy="104776"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C2B809-3321-4273-A199-B2F8CAC7D718}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2333626" y="457200"/>
+            <a:ext cx="1657350" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874E703B-2AB1-4A87-9230-F384C8E87594}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3990976" y="457200"/>
+            <a:ext cx="1257299" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38027045-CDB7-4DAD-8920-E44ACAD1C66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="121920" y="9525"/>
+          <a:ext cx="8073390" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1834515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="D1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD63116-EC2B-4ABF-84C9-B3C2F1E5869C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5760720" y="74295"/>
+          <a:ext cx="2314575" cy="1139190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:fld id="{68DC6BBE-3579-47C3-AF84-66E0C45E4378}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:t>INVOICE</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1080135</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55C54DC-1C66-4EE5-B278-579241AC2D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="720089" y="746761"/>
+          <a:ext cx="6600826" cy="220980"/>
+          <a:chOff x="628650" y="457200"/>
+          <a:chExt cx="4619625" cy="114301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC6F3CB-72F9-4438-B6CD-EB4917727DF4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628650" y="466725"/>
+            <a:ext cx="1724025" cy="104776"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F742D55-ED22-453E-8D0A-53C774D31A99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2333626" y="457200"/>
+            <a:ext cx="1657350" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964A9AD2-432D-4EAE-BBFD-DC12A1E7DAE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3990976" y="457200"/>
+            <a:ext cx="1257299" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C080FA-1F35-431F-97F8-27A332F950C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="121920" y="9525"/>
+          <a:ext cx="8073390" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1834515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="D1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C26283-B779-4887-9D32-9B23E0C577DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5760720" y="74295"/>
+          <a:ext cx="2314575" cy="1139190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:fld id="{68DC6BBE-3579-47C3-AF84-66E0C45E4378}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:t>INVOICE</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Microsoft Sans Serif" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1080135</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4812F1-B7ED-473D-A824-AF0693A3C17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="720089" y="746761"/>
+          <a:ext cx="6600826" cy="220980"/>
+          <a:chOff x="628650" y="457200"/>
+          <a:chExt cx="4619625" cy="114301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DEE4B4-C778-4915-A1BF-6C205BD28763}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628650" y="466725"/>
+            <a:ext cx="1724025" cy="104776"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FF59F7-64C6-4AF2-91F0-3DAB5B159735}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2333626" y="457200"/>
+            <a:ext cx="1657350" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA88EE9-BCFA-4DA7-9234-F0EBB3831F80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3990976" y="457200"/>
+            <a:ext cx="1257299" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326B3D18-8AB6-4480-9B6E-1087958AE7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="121920" y="9525"/>
+          <a:ext cx="8073390" cy="882015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1996440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1834515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="D1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37907E4-EB73-4241-97C3-562C016E3EB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +4351,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F0F02D-21F3-42EA-B26B-F76DF71A644E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DCB192-4ADC-478B-99AC-CB2E8BACF7CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +4370,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB5A213-0CD0-44BE-8EDE-B89160BABA9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DE585C-3A63-484D-8808-36634EC2A615}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3064,7 +4399,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC7C47-E848-4F57-B351-6474518F85D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FE8CB9-FFCD-4F8F-B7D5-E94E1F822375}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3093,7 +4428,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853D4E3B-8559-482E-B9FA-1B517370E834}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1655E376-3B6C-4920-98D9-81C62200218B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3138,7 +4473,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB1199F-1C9D-44B5-8B4E-80526E0CD425}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E88039-AC49-42BB-8DCA-134A3502E1FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3182,7 +4517,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6FFF8D-BAA5-404B-88DB-809C36890221}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7ECF81-62EF-41E7-9715-2796D315A876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +4611,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362CDA59-81BC-4929-8F23-1C023A2D728E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264BD97E-7D8B-4143-8223-018684BBF6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +4630,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA8C740-B28E-4C38-8654-33323FB78923}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FDA4B3-368D-4CB5-9503-1FC579479059}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3324,7 +4659,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782A06D2-E5E5-48B9-9CB2-B8FEB424B81E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7792C4-C55F-4CBE-8FB1-5B4B03D358F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3353,7 +4688,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02994743-8DEA-4010-B98C-EB82A4DB9315}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7992C6BF-C950-4933-976E-344DB5C55D9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3398,7 +4733,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D3E53A-A098-4BC4-A42D-B0722E98D500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132F14E6-7588-42D5-AF78-A9BDEA6EECFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +4777,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB23A37-D824-4DB8-8700-2F95AF2D380B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B2751E-5A8B-4400-8816-3D798C9FED20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3536,7 +4871,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE34DFC7-AB16-4156-9436-633CE8F8EC12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D67B6B-9B40-44A8-B0CC-EF60A0F149A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +4890,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AFA1BA-61BD-4E30-9988-F1C48C381EBD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A2A7D3-D415-42FA-85F7-382FA8EA4AB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3584,7 +4919,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BBC465-D34A-49BD-9AAB-CF26C6D8368D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F17CD-C367-4D50-8283-688C90B77741}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3613,7 +4948,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27A209E-40FC-49C2-9DF8-E09A469D4155}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB21F2-9ED0-49AC-97D0-3F4746F193BF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3658,7 +4993,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1D035C-3A94-469C-BB0B-3D57A570FA10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC8A24D-E5CE-4C7B-B972-D66C249D5DF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,7 +5037,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222DDF80-188D-4C17-922C-2B33E22EAA5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC22CDC-BEC9-4A71-B5A1-6CEECE18E518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +5131,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FFAD82-5E39-4678-B850-F728F1DE43B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240366AB-F296-4C71-8611-93FA1135DFD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,7 +5150,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5E5B45-6721-4411-9DC5-639D913DFAF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38508DEC-3047-4249-8A45-CEB7CD1A8216}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3844,7 +5179,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3A022B-9247-48AD-9FE0-621F3EA45F13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282524BE-3EAA-4686-A682-9458E0FFBE61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3873,7 +5208,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64718028-42FD-475B-95AD-358646579A13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25265E23-5F16-4663-AD9C-BB666728ACA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3918,7 +5253,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B373B2-A814-4767-ADA9-EC2A739F923E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1FE863-BEB3-46A3-8480-8E70FB697EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,7 +5297,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB6F7BF-AEEF-4994-B233-EEF8AABE8BC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFC977A-95AA-4399-B165-D27635754850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +5391,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7189F4-EA1F-4FA1-BF9D-18AE316B0BEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05214C6-1F84-4094-BE0A-74D460CC884D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,7 +5410,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315BD4E-6CD5-401E-99E6-FC1DBF08BB85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81591AF4-5D56-46D3-82D0-73FDD61A58D7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4104,7 +5439,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432C363C-9F25-4EF9-813E-869F6F541C8F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F1A8BD-139C-479A-A702-200D7B1D5BA3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4133,7 +5468,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDC0E33-E104-4B2F-8727-83039DACF2AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFFF1BF-3BC8-4350-8D2E-9950FE084CB2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4178,7 +5513,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49785E76-D072-4E51-9A54-E8C28A46ACA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A106F38-D0BB-4EFD-A130-ACE3A5AEB2B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,7 +5557,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E801C33-DDA6-4C9E-BB8C-4A3C3B746C26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7FBFF9-4CB7-49E7-B762-FBFC84BD1F3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +5651,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE1560-0925-409F-A807-259B9724F21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25778D26-2B1A-4275-8FFB-9FED0472C8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +5670,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F832FDE2-F5C9-44DC-86DF-B537E0BF31BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E12E34-6FC5-48F1-881C-49E910F81D73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4364,7 +5699,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC33CD38-B936-474A-B989-2FBD8440BA2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF45C1C-30ED-46D9-B1C5-25B7F3D57C9F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4393,7 +5728,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14698DF5-C048-4B5E-ABBE-743AC41FC74E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9BD8A2-E509-4A5B-BB3A-902F7B4E0B5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4438,7 +5773,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6146E663-1BD8-4FD8-A2A1-E5C178153091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD832B6A-16B8-4474-A821-FC2B54E83D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4482,7 +5817,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2794D9CC-6FDD-4949-B46D-EF16D9A8C95E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C61069-EDFF-4F76-8211-C27022A122AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4576,7 +5911,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AC51F4-5E89-4F48-BCF9-5D528F55C9B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8013EBB-15FC-452B-8275-2C6BD6A735D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4595,7 +5930,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DFDFF7-5703-4687-BD4B-5D2DD7D3BE28}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFA5AD9-095C-4BA9-A07F-F82C15C50E12}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4624,7 +5959,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67778C25-D15A-452B-A7D4-C84F6AEBE315}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF4F103-53A5-4D02-A9D4-0BA7179327EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4653,7 +5988,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E49700-0D48-4FC8-B372-0E32338E3F9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9377F3-3834-4AC4-9266-0B5139D5EA89}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4698,7 +6033,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E335D4A-937E-4502-9E1D-DBFF62E75746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA7E78A-E1EB-4587-A2B6-ACD80D6722B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,7 +6077,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28695F19-6E8D-47CD-BA44-9D89D0D89EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAF0EFA-DACE-4F51-8093-ABB64EF54A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +6171,7 @@
         <xdr:cNvPr id="2" name="Group 1" descr="Pink, blue, gray, and rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBF66FD-F43E-4A02-A75E-9A522CA44F76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA18BE86-B287-4DBD-82EC-F9FB0A0B4540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,7 +6190,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC9C651-6583-4F31-B372-0A669F050F80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385DFF29-15F2-42A3-B178-E14127EF45F2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4884,7 +6219,7 @@
           <xdr:cNvPr id="4" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0B38A5-8653-45EF-BC16-3C13C700E366}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B873D60D-BBA4-47BD-826B-A838574B96AB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4913,7 +6248,7 @@
           <xdr:cNvPr id="5" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F6A686-9DCC-4638-9C39-51579EA8198C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDD923A-07FD-453F-9D88-8E7463B8AB40}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4958,7 +6293,7 @@
         <xdr:cNvPr id="6" name="Rectangle 2" descr="Black rectangle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D4DE2A-3C6E-45CB-B6B5-47D35D097B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D0E900-618B-4326-AEDF-AEBF2D7FBCF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5002,7 +6337,7 @@
         <xdr:cNvPr id="7" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682E39B6-ADFD-4156-9C68-AEDC1878FC8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9344F5B6-9E2C-46AB-9376-5BE73614E875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,120 +6412,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EF0C26E-439E-4650-BA3C-1E24150F0AEE}" name="Table25" displayName="Table25" ref="B15:E23" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EF0C26E-439E-4650-BA3C-1E24150F0AEE}" name="Table25" displayName="Table25" ref="B15:E23" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3E3C5FAB-DA6F-46BC-B364-0A6CDD6689EA}" name="QTY" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{DB9C1AF3-BA70-4751-AE51-19C0DA7DA4A9}" name="DESCRIPTION" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{9D946410-79F0-4027-87B6-738CA4A67215}" name="UNIT PRICE" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{FF68C910-BB80-476C-8B40-C842E89BA4F4}" name="TOTAL" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{3E3C5FAB-DA6F-46BC-B364-0A6CDD6689EA}" name="QTY" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{DB9C1AF3-BA70-4751-AE51-19C0DA7DA4A9}" name="DESCRIPTION" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{9D946410-79F0-4027-87B6-738CA4A67215}" name="UNIT PRICE" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{FF68C910-BB80-476C-8B40-C842E89BA4F4}" name="TOTAL" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3A4FAD22-5965-45BF-8648-F9B87CDF1DC5}" name="Table2511" displayName="Table2511" ref="B15:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F735C59E-F96D-402B-B9A8-E11B935C164C}" name="Table2511" displayName="Table2511" ref="B15:E23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1E2D53A7-7955-431C-8456-F76EEA63DE00}" name="QTY" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9DD96475-5FA8-4713-8497-8042B21886C0}" name="DESCRIPTION" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{18E1CA39-4500-464F-BC58-2ACA74033EB8}" name="UNIT PRICE" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D1BE5A9-6ECE-40AE-802E-E869A23B1F66}" name="TOTAL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5317EC87-3BAB-4BAA-AA3F-A43C49882467}" name="QTY" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FBD8DA4D-1D56-40C5-A082-B5168163A6EB}" name="DESCRIPTION" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{B75A9A21-59F4-4A9D-94BA-F3C50840D4D1}" name="UNIT PRICE" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{CA1A4190-AA1E-49E2-A474-6DA6B17EA237}" name="TOTAL" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{22B21E62-AD97-46E4-BECC-7DB0D37A3A9D}" name="Table2512" displayName="Table2512" ref="B15:E23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FCD5E97C-FF3B-4C9B-892D-3B42C1FAEEC7}" name="QTY" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2284282B-9EE3-4F8E-9B18-F504B1F40F44}" name="DESCRIPTION" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{0DE110F5-9A99-4744-BB0D-41E95618EDA9}" name="UNIT PRICE" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{4FF86C3D-28AC-45A1-AC77-F8271DDE4F22}" name="TOTAL" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AB8EC851-97C8-47AF-BF9A-6015B7BEA61D}" name="Table2513" displayName="Table2513" ref="B15:E23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8A962ADB-2145-4C85-8ACF-6CBC748806D8}" name="QTY" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{587EE3A9-ABCA-4C6F-90AD-995DA9824933}" name="DESCRIPTION" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{41ADC88C-8124-4237-83A0-EBC0B9D3223C}" name="UNIT PRICE" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{46225C92-577A-4B63-A858-A11ACE29ACF6}" name="TOTAL" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6E4995B7-128B-4C87-A179-267C61F5F624}" name="Table2514" displayName="Table2514" ref="B15:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7BCDBA3E-D217-4A59-A603-AF90CAE99B92}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CFF00482-ABE0-4513-A89F-CE434440CCD8}" name="DESCRIPTION" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0F9E91CF-E818-4CA1-85B1-F9A3A1373C25}" name="UNIT PRICE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EFF6E9D0-7888-48AA-9D5A-349856AA3F94}" name="TOTAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36CB2ABB-EF30-4B65-981E-99B1210F9769}" name="Table252" displayName="Table252" ref="B15:E23" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67AD1CCA-5C02-41BC-BA6E-F6C2FD4969C7}" name="Table252" displayName="Table252" ref="B15:E23" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" tableBorderDxfId="81">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{200FC115-173E-4E7F-A64D-20FD84025DD3}" name="QTY" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{6582BD7A-CD83-4A65-94E2-F8E4D6067336}" name="DESCRIPTION" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{ECCB0F6D-E789-47A2-94F6-E44D5FDB1EB7}" name="UNIT PRICE" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{5764C4F3-E562-4386-B941-374A8F11A99A}" name="TOTAL" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{1169786A-42EA-48A0-BEA6-3B6B7D30E415}" name="QTY" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{889B6B73-EE2B-474A-BD37-B341C51E333A}" name="DESCRIPTION" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{124A1ACA-70AC-4177-94F8-AC963ABF2077}" name="UNIT PRICE" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{8D018F1E-0A43-405A-8D2F-D3E6049D1F59}" name="TOTAL" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18C571F3-D52A-40B6-A55E-D41CAA340CF7}" name="Table253" displayName="Table253" ref="B15:E23" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAD83BDD-59D7-41D0-B269-B967B365C394}" name="Table253" displayName="Table253" ref="B15:E23" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CF0B8E5-48CC-405A-A21A-DD878CF0A610}" name="QTY" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{270E59DE-5168-4E42-839D-7EC1887C37B8}" name="DESCRIPTION" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{3D26992F-64C4-4026-B670-5BFBA99CBDEA}" name="UNIT PRICE" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{83FC2A81-CBCF-4919-BC02-EB44775C601C}" name="TOTAL" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{8DFCDFF5-03E4-4297-BF95-FFF171DAE996}" name="QTY" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{0C139DBF-807C-4AB4-A6AC-60F3D5F309EF}" name="DESCRIPTION" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{229FEE7D-8CA3-457F-8391-60DD9BE98423}" name="UNIT PRICE" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{5462B2F1-AAFC-4B62-A9DA-91C64EFFE659}" name="TOTAL" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0BF7ADB7-DDCD-461C-AB45-94D9F37B1503}" name="Table254" displayName="Table254" ref="B15:E23" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60F7990D-A6B9-4ED2-9B0D-1B4923CDEAEC}" name="Table254" displayName="Table254" ref="B15:E23" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F0D48C37-8BDC-45A6-9FC4-9FD2560DB903}" name="QTY" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{9C00CD5C-D9DE-47C1-B9F6-CF45EFEC1C9C}" name="DESCRIPTION" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{9295A0AF-75FF-4DC4-B38E-E366A1DFDDAD}" name="UNIT PRICE" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{352257D1-228B-44EB-9A35-B9C24136A1DE}" name="TOTAL" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{6A940B31-ED3C-4228-A711-B5B706485B9E}" name="QTY" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{60F68917-2AC1-40FD-B8E2-6CE686C640BC}" name="DESCRIPTION" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{A914521C-C828-430B-90D0-69823B6DF548}" name="UNIT PRICE" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{F8C63328-DD52-4CB0-8997-25E363F312A8}" name="TOTAL" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{53F11C23-5057-4C27-BB5B-834DF182FD03}" name="Table256" displayName="Table256" ref="B15:E23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F24746E-8C3B-46BD-9494-DD7D8A8CB06D}" name="Table256" displayName="Table256" ref="B15:E23" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{241639C5-D1B6-47F0-9724-EE7232738D26}" name="QTY" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{70D4F857-93D6-4BB7-A519-66D320A7963B}" name="DESCRIPTION" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{E2F985AC-9943-4097-AA6D-71F44011079C}" name="UNIT PRICE" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{304405B8-A3F7-4118-AE36-158D339B4FF4}" name="TOTAL" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{3E778864-98B8-45BE-9FB4-DDAED69AD528}" name="QTY" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{F3B2C44C-018A-4B7F-A9FE-EA383278EC68}" name="DESCRIPTION" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{4FBBD165-017F-4B1C-8D79-01DBFC9BBC0C}" name="UNIT PRICE" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{D0FAF1E0-CC0D-4462-B01A-304F19381F42}" name="TOTAL" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3FD783DB-D5A8-4481-9450-56523962B21B}" name="Table257" displayName="Table257" ref="B15:E23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F4D17FC9-F407-4032-B5EB-2D60DAFAA757}" name="Table257" displayName="Table257" ref="B15:E23" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4DBD023B-FF4F-4C8D-9A23-5E418A61D985}" name="QTY" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{82BD27BA-7104-4167-AB03-67EFFAB25E49}" name="DESCRIPTION" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{02EEC4DF-7CEC-4ED6-A8C3-5747C4456C89}" name="UNIT PRICE" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{726C6BFC-FB3C-418B-9DF5-B3833AC6E456}" name="TOTAL" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{244AD3BD-86D7-4858-A49E-14A5C7F136DA}" name="QTY" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{F0639479-5361-4B3F-9872-646D04572AED}" name="DESCRIPTION" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{011B7CC3-4E3C-4982-BA3F-AD97C1F63AEF}" name="UNIT PRICE" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{73D385B2-94C4-4B91-B84F-B9C188278158}" name="TOTAL" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{74860D6F-FF63-4B06-866D-F473C16C4FF2}" name="Table258" displayName="Table258" ref="B15:E23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5FDF0E1E-644E-4D89-A023-CBE743096027}" name="Table258" displayName="Table258" ref="B15:E23" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98AB4297-DE0C-420B-B599-176B2F12CF93}" name="QTY" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{EACFA3CA-A678-4472-B899-F1CFF409A63A}" name="DESCRIPTION" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{D8F8653D-683B-48E7-8F57-CDE7B35C5749}" name="UNIT PRICE" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{46D8584B-A3E9-4A52-922B-9496C969D59C}" name="TOTAL" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{73134593-6E26-4012-9753-7D2AB466796C}" name="QTY" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5E3E3A35-F218-40B0-A378-AD65197F62EA}" name="DESCRIPTION" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{4241AE89-67CE-45CD-BF5C-8661DC1C0B0C}" name="UNIT PRICE" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{56CA8661-23E8-4248-8C65-755997DC0210}" name="TOTAL" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84139BE0-5357-4E80-9B1C-32A38794409B}" name="Table259" displayName="Table259" ref="B15:E23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1DD68A36-9E1E-4657-86F8-6FEA455CE8F7}" name="Table259" displayName="Table259" ref="B15:E23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED1398FE-CBB8-4406-8183-DADA5293D1BA}" name="QTY" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{56AF20EC-C6DC-4E05-AE04-9ECAF3A89C2B}" name="DESCRIPTION" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{57FFA572-FC02-4FBE-A5AA-0A7FCB841F8B}" name="UNIT PRICE" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{FB1031C5-26F6-4725-A8DD-E13B0E7B3B61}" name="TOTAL" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2C0A24CF-3641-4F5E-A031-2B3B586FD7E4}" name="QTY" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{5B42D6C5-B431-460E-825A-212B8EA0AD37}" name="DESCRIPTION" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{356FF088-63C1-4337-9C21-6962AD5CA39F}" name="UNIT PRICE" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{CA818BA1-154B-4227-B68E-FACE4B0AFC77}" name="TOTAL" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7B503F54-683C-45E8-8010-F11AF4C19B92}" name="Table2510" displayName="Table2510" ref="B15:E23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{58C963F0-24F7-4FEE-87EC-076B38F14FB3}" name="Table2510" displayName="Table2510" ref="B15:E23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D76D22E-57B2-465F-AFDB-0D4A36B2AA02}" name="QTY" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EFC8D498-7CA6-45B2-A6B4-853C16531A61}" name="DESCRIPTION" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A56C46CD-0E87-42E8-9F70-3006E2094C48}" name="UNIT PRICE" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4F735BC2-42A7-4DBD-B07A-2F6437E7C73F}" name="TOTAL" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C60DFEBE-CF66-4002-AAF4-63BE97CF5A32}" name="QTY" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{6DD12E51-238D-45E0-87C5-B98A377AED99}" name="DESCRIPTION" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{0F4D80E0-645E-40A3-8D5F-A1D49DBFDD9B}" name="UNIT PRICE" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{4B9E1C13-706C-4A57-9ACF-9809C596233D}" name="TOTAL" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5502,36 +6873,36 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5545,10 +6916,10 @@
       <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -5561,32 +6932,32 @@
       <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="84">
         <v>43893</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -5599,40 +6970,40 @@
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
       <c r="C11" s="19"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
       <c r="C12" s="19"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -5740,6 +7111,13 @@
     <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B1:C1"/>
@@ -5747,13 +7125,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5765,7 +7136,907 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344BCB18-8291-4CBB-836E-5BDAA7895695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CA318E-3133-4778-8686-155760FE661E}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="83">
+        <v>866952</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>42774</v>
+      </c>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>671783</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD4C55-8155-454A-8E3A-4944AC412865}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="83">
+        <v>720095</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>42846</v>
+      </c>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>679483</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="66"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7BAABB-2D7F-4F9A-BE61-3A6466C8DD50}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="83">
+        <v>382824</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>42853</v>
+      </c>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>821163</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="70"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E410B937-2194-4FCF-B23A-DD9991261489}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -5787,91 +8058,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>193194</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>200914</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>43050</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>43063</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>931753</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>936683</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -5880,59 +8151,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="64"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="64"/>
+      <c r="E13" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="64"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5957,13 +8228,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5997,7 +8268,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6007,7 +8278,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6017,7 +8288,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6065,7 +8336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D50049-3D1C-494B-92EC-1530638FE8EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D414FE-6094-411A-A2B4-9F600A1AFEA6}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6087,36 +8358,36 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,10 +8401,10 @@
       <c r="D5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>712160</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>761105</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -6146,32 +8417,32 @@
       <c r="D6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>42893</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>42944</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="41"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>117663</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>139373</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -6184,40 +8455,40 @@
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
       <c r="C10" s="40"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
       <c r="C11" s="40"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
       <c r="C12" s="40"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -6263,7 +8534,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6297,7 +8568,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,7 +8578,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6317,7 +8588,307 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948D003-5B47-4E3B-A5BA-D3B0726CD35E}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="83">
+        <v>276412</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="84">
+        <v>42971</v>
+      </c>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>206423</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="82" t="s">
         <v>40</v>
+      </c>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6364,8 +8935,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0069C8B0-92A0-48EF-A874-3BD0ED99D942}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235ED14-C491-4BDD-938B-2F6E183EE379}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6387,91 +8958,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>235581</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>946242</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>42810</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>42799</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>125683</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>249783</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -6480,59 +9051,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="42"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="42"/>
+      <c r="E13" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6557,13 +9128,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6597,7 +9168,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6607,7 +9178,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6617,7 +9188,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6664,8 +9235,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74C765C-94FF-4CBB-B03C-FE99D0A6A86E}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEABEE-10B3-4489-BF1A-4E7F90A1850D}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6687,91 +9258,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>686985</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>151985</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>42791</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>143083</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>298483</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -6780,59 +9351,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="46"/>
+      <c r="E13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="46"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6857,13 +9428,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6897,7 +9468,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6907,7 +9478,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6917,7 +9488,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6964,8 +9535,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0421A87-6917-491D-A50B-075E5409F593}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362DD50B-0805-4B15-B283-B32CA46E37F2}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6987,91 +9558,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>913629</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>266473</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>43049</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>43012</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>348843</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>464763</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -7080,59 +9651,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="48"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="48"/>
+      <c r="E13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="48"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7157,13 +9728,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7197,7 +9768,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7207,7 +9778,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7217,7 +9788,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7264,8 +9835,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37D6C2A-D5C8-403E-A5F9-E4660C0B83B9}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A83C79-0B47-43A9-9ED7-3A81D83CFD1A}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7287,91 +9858,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>753038</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>570388</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>43087</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>42799</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>408013</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>466393</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -7380,59 +9951,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="52"/>
+      <c r="E13" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7457,13 +10028,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7497,7 +10068,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7507,7 +10078,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7517,7 +10088,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7564,8 +10135,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298279B-2AAE-4E24-B868-BB362205D5DB}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA82051E-3A37-49DD-9E42-B9167A44417C}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7587,91 +10158,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>407357</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>299832</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>42950</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>570193</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>584433</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -7680,59 +10251,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="54"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="54"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="54"/>
+      <c r="E13" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="54"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7757,13 +10328,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7797,7 +10368,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7807,7 +10378,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,7 +10388,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7864,8 +10435,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C7BB51-ACE4-4F73-AC67-EB474A88ED1B}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A793F-2519-4600-BC8F-D1B38CE19373}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7887,91 +10458,91 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67">
-        <v>781817</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="E5" s="83">
+        <v>207766</v>
+      </c>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
-        <v>42867</v>
-      </c>
-      <c r="F6" s="68"/>
+      <c r="E6" s="84">
+        <v>42918</v>
+      </c>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="69" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>643863</v>
-      </c>
-      <c r="F7" s="67"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="83">
+        <v>626983</v>
+      </c>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -7980,59 +10551,59 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="E9" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="66"/>
+      <c r="E10" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="66"/>
+      <c r="E11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="66"/>
+      <c r="E12" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="58"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="58"/>
+      <c r="E13" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8057,13 +10628,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8097,7 +10668,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8107,7 +10678,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8117,7 +10688,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8164,307 +10735,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC4D4D-3113-4744-9A05-8360016771A0}">
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.59765625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="72"/>
-    </row>
-    <row r="2" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="67">
-        <v>409095</v>
-      </c>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="68"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67">
-        <v>850173</v>
-      </c>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="66"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="66"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="66"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="60"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
-        <v>1</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2eb7a32e66fb6e4260f3771546a5e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04e1f6479c48b08974ba73b5ca973489" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8675,15 +10955,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8693,6 +10964,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97212CEA-8CA7-4E86-9492-62985588807B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0A58CA-F5DA-4E32-84EC-4E979C05D387}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8711,14 +10990,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97212CEA-8CA7-4E86-9492-62985588807B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78C9C5C0-B049-41B3-B891-2F494C84B7C5}">
   <ds:schemaRefs>
